--- a/biology/Médecine/Johann_Ewich/Johann_Ewich.xlsx
+++ b/biology/Médecine/Johann_Ewich/Johann_Ewich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann (ou Johannes) Ewich (né en 1525 à Hoerstgen (de) - mort le 7 février 1588 à Brême en Saint-Empire) est un réformateur protestant et un médecin allemand.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1556, il est un réformateur protestant à Hoerstgen ; vers 1561, il est le premier médecin à obtenir son diplôme à Duisbourg. Il s'établit à Brême en 1562[1], et y demeure jusqu’à sa mort comme médecin appointé de la ville (« Stadtphysikus »). Il a également travaillé comme professeur de médecine à l'« école illustre » de Brême.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1556, il est un réformateur protestant à Hoerstgen ; vers 1561, il est le premier médecin à obtenir son diplôme à Duisbourg. Il s'établit à Brême en 1562, et y demeure jusqu’à sa mort comme médecin appointé de la ville (« Stadtphysikus »). Il a également travaillé comme professeur de médecine à l'« école illustre » de Brême.
 Dans ses lettres et ses brochures, il a publié principalement des enquêtes sur la nature de la peste, d'un point de vue médical et social ; il est également connu comme critique de la persécution des sorcières.
 </t>
         </is>
